--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
@@ -1053,12 +1053,6 @@
     <t>2b</t>
   </si>
   <si>
-    <t>El sistema puede mostrar la lista bajo otro filtro y es mostrada al administrador.</t>
-  </si>
-  <si>
-    <t>Dentro del sistema no se encuentran Hostel Workers. Se le avisa al administrador.</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -1071,18 +1065,6 @@
     <t>3d</t>
   </si>
   <si>
-    <t>Selecciona la opción Agregar Hostel Worker. Incluir (CU_XX, CU_Agregar_Hostel_Woker)</t>
-  </si>
-  <si>
-    <t>Selecciona la opción Buscar Hostel Worker. Incluir (CU_XX, CU_Buscar_Hostel_Woker)</t>
-  </si>
-  <si>
-    <t>Seleciona la opción Modificar Hostel Worker. Incluir (CU_XX, CU_Modificar_Hostel_Woker)</t>
-  </si>
-  <si>
-    <t>Seleciona la opción Eliminar Hostel Worker. Incluir (CU_XX, CU_Eliminar_Hostel_Woker)</t>
-  </si>
-  <si>
     <t>Rápido</t>
   </si>
   <si>
@@ -1098,7 +1080,25 @@
     <t>3e</t>
   </si>
   <si>
-    <t>Seleciona otro filtro para ver la lista de Hostel Workers.</t>
+    <t>El sistema puede mostrar la lista bajo otro filtro y es mostrada al actor Admin.</t>
+  </si>
+  <si>
+    <t>Dentro del sistema no se encuentran Hostel Workers. Se le avisa al actor Admin.</t>
+  </si>
+  <si>
+    <t>Actor Admin: Selecciona la opción Agregar Hostel Worker. Incluir (CU_XX, CU_Agregar_Hostel_Woker)</t>
+  </si>
+  <si>
+    <t>Actor Admin: Selecciona la opción Buscar Hostel Worker. Incluir (CU_XX, CU_Buscar_Hostel_Woker)</t>
+  </si>
+  <si>
+    <t>Actor Admin: Seleciona la opción Modificar Hostel Worker. Incluir (CU_XX, CU_Modificar_Hostel_Woker)</t>
+  </si>
+  <si>
+    <t>Actor Admin: Seleciona la opción Eliminar Hostel Worker. Incluir (CU_XX, CU_Eliminar_Hostel_Woker)</t>
+  </si>
+  <si>
+    <t>Actor Admin: Seleciona otro filtro para ver la lista de Hostel Workers.</t>
   </si>
 </sst>
 </file>
@@ -1606,29 +1606,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1638,11 +1630,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4118,8 +4118,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4136,95 +4136,95 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="43"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4243,329 +4243,348 @@
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+      <c r="C22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="C23" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+        <v>38</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="22"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="22"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="19"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:I5"/>
@@ -4578,31 +4597,12 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
@@ -1609,18 +1609,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1630,19 +1641,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4118,8 +4118,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4136,27 +4136,27 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="24" t="s">
         <v>23</v>
       </c>
@@ -4166,11 +4166,11 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="24" t="s">
         <v>24</v>
       </c>
@@ -4180,23 +4180,23 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
@@ -4206,11 +4206,11 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
@@ -4220,11 +4220,11 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
@@ -4243,132 +4243,132 @@
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="42"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -4388,57 +4388,57 @@
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="42"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="42"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="42"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="42"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
@@ -4458,31 +4458,31 @@
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="24"/>
@@ -4500,7 +4500,7 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="24"/>
@@ -4518,73 +4518,54 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38" t="s">
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="39"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:I5"/>
@@ -4597,12 +4578,31 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Administrar Personal) Listar de Hostel Workers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\synchostel\análisis\Casos de Uso Narrativos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SyncHostel\synchostel\análisis\Casos de Uso Narrativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -940,14 +940,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="56" uniqueCount="53">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="57" uniqueCount="53">
   <si>
     <t>Caso de uso</t>
   </si>
   <si>
-    <t>&lt;&lt; id &gt;&gt;</t>
-  </si>
-  <si>
     <t>Actores</t>
   </si>
   <si>
@@ -1014,9 +1011,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Secundario | Real</t>
-  </si>
-  <si>
     <t>Ninguna</t>
   </si>
   <si>
@@ -1044,9 +1038,6 @@
     <t>El sistema muestra los datos del Hostel Worker seleccionado.</t>
   </si>
   <si>
-    <t>Fin</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
@@ -1065,15 +1056,9 @@
     <t>3d</t>
   </si>
   <si>
-    <t>Rápido</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Moderada</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -1099,6 +1084,21 @@
   </si>
   <si>
     <t>Actor Admin: Seleciona otro filtro para ver la lista de Hostel Workers.</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secundario | Esencial </t>
+  </si>
+  <si>
+    <t>2.1.1, 2.1.2, 2.1.3, 2.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin del caso de uso </t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -1609,29 +1609,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1641,8 +1630,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4118,8 +4118,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4136,29 +4136,29 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -4166,13 +4166,13 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -4180,25 +4180,27 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -4206,13 +4208,13 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -4220,162 +4222,162 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="G8" s="11" t="d">
         <v>2015-04-18</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="B10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="B13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="G18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="B21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -4386,66 +4388,66 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -4456,116 +4458,135 @@
     </row>
     <row r="28" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="B30" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>15</v>
+      <c r="B31" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>17</v>
+      <c r="B32" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="22"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:I5"/>
@@ -4578,31 +4599,12 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
